--- a/biology/Zoologie/Craugastor_escoces/Craugastor_escoces.xlsx
+++ b/biology/Zoologie/Craugastor_escoces/Craugastor_escoces.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Craugastor escoces est une espèce d'amphibiens de la famille des Craugastoridae[1].
-Cette espèce fut considérée éteinte par l'UICN car elle n'avait pas été observée depuis 1986 malgré d'actives recherches[2]. Cependant, elle a été redécouverte le 18 Septembre 2016, après 30 années d’extinction, ainsi que 12 années après avoir été déclarée officiellement disparue. L’endroit où l'espèce a été trouvé se situe à l'ouest de la région montagneuse centrale du Costa Rica, c'est-à-dire +&gt;15 km en dehors de son dernier habitat de distribution[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Craugastor escoces est une espèce d'amphibiens de la famille des Craugastoridae.
+Cette espèce fut considérée éteinte par l'UICN car elle n'avait pas été observée depuis 1986 malgré d'actives recherches. Cependant, elle a été redécouverte le 18 Septembre 2016, après 30 années d’extinction, ainsi que 12 années après avoir été déclarée officiellement disparue. L’endroit où l'espèce a été trouvé se situe à l'ouest de la région montagneuse centrale du Costa Rica, c'est-à-dire +&gt;15 km en dehors de son dernier habitat de distribution.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Costa Rica[1]. Elle pouvait se rencontrer à 1 100 2 100 m d'altitude sur les volcans Barva, Irazú et Turrialba dans la cordillère Centrale.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Costa Rica. Elle pouvait se rencontrer à 1 100 2 100 m d'altitude sur les volcans Barva, Irazú et Turrialba dans la cordillère Centrale.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Savage, 1975 : Systematics and distribution of the Mexican and Central American stream frogs related to Eleutherodactylus rugulosus. Copeia, vol. 1975, no 2, p. 254-306.</t>
         </is>
